--- a/prep/MAR/mar_species.xlsx
+++ b/prep/MAR/mar_species.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="105" windowWidth="27795" windowHeight="10035"/>
+    <workbookView xWindow="705" yWindow="60" windowWidth="27795" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,63 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Abalone (red, haliotus refens and Japanese, Haliotus discus hanai)</t>
-  </si>
-  <si>
-    <t>Broodstock and juvenile shrimp (L. vanamei, L. monodon, L. stylirostris)</t>
-  </si>
-  <si>
-    <t>Kahala (amberjack, seriola rivoliana)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Marine ornamental fish and plants (various species)</t>
   </si>
   <si>
-    <t>Marine shrimp for food (Penaeus vannamei)</t>
-  </si>
-  <si>
     <t>Microalgae (Spirulina sp., Hematococcus sp.)</t>
   </si>
   <si>
     <t>Seahorses (various species)</t>
   </si>
   <si>
-    <t>Seaweed or sea vegetables (Gracilaria sp.)</t>
-  </si>
-  <si>
-    <t>Seed clams (Mercenaria mercenaria)</t>
-  </si>
-  <si>
-    <t>Seed oysters and clams (Crassostrea gigas, Venerupis Philippinarum, Crassostrea Sikamea)</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Haliotus refens</t>
-  </si>
-  <si>
     <t>L. vanamei, L. monodon, L. stylirostris</t>
   </si>
   <si>
     <t>Penaeus vannamei</t>
   </si>
   <si>
-    <t>Hematococcus sp</t>
-  </si>
-  <si>
     <t>Hippocampus sp</t>
   </si>
   <si>
-    <t>Spirulina sp</t>
-  </si>
-  <si>
     <t>Mercenaria mercenaria</t>
   </si>
   <si>
     <t>Crassostrea gigas, Venerupis Philippinarum, Crassostrea Sikamea</t>
+  </si>
+  <si>
+    <t>Gracilaria sp</t>
+  </si>
+  <si>
+    <t>sust_coeff_Trujillo_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Seriola dumerili</t>
+  </si>
+  <si>
+    <t>Native (1), Introduced (0.5), Invasive (0)</t>
+  </si>
+  <si>
+    <t>Sustainability Coefficent =</t>
+  </si>
+  <si>
+    <t>Various species</t>
+  </si>
+  <si>
+    <t>Sustainable Feed (0=imported)</t>
+  </si>
+  <si>
+    <t>Cultured Species</t>
+  </si>
+  <si>
+    <t>Species Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilapia </t>
+  </si>
+  <si>
+    <t>Sustainability Score</t>
   </si>
   <si>
     <r>
@@ -80,44 +83,52 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF666666"/>
-        <rFont val="Lucida Sans Unicode"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t> sp</t>
     </r>
   </si>
   <si>
-    <t>Tilapia (Tilapia sp. (black, red, blue but no Nile)</t>
-  </si>
-  <si>
-    <t>Gracilaria sp</t>
-  </si>
-  <si>
-    <t>Susceptable to bacterial infections (1=highly susecpt)</t>
-  </si>
-  <si>
-    <t>sust_coeff_Trujillo_2008</t>
-  </si>
-  <si>
-    <t>Native (1) vs Invasive (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>sus_risk</t>
-  </si>
-  <si>
-    <t>Seriola dumerili</t>
+    <t>Susceptability to Disease (0=highly susecptable)</t>
+  </si>
+  <si>
+    <t>Feed Plant Based (0=protein based)</t>
+  </si>
+  <si>
+    <t>Haliotus refens, Haliotus discus hanai</t>
+  </si>
+  <si>
+    <t>Abalone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broodstock and juvenile shrimp </t>
+  </si>
+  <si>
+    <t>Kahala (amberjack)</t>
+  </si>
+  <si>
+    <t>Marine shrimp for food</t>
+  </si>
+  <si>
+    <t>Spirulina sp, Hematococcus sp</t>
+  </si>
+  <si>
+    <t>Seaweed or sea vegetables</t>
+  </si>
+  <si>
+    <t>Seed clams</t>
+  </si>
+  <si>
+    <t>Seed oysters and clams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,22 +137,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="Lucida Sans Unicode"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="Lucida Sans Unicode"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -153,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,16 +183,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,267 +546,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="9">
+        <f>AVERAGE(D2:G2)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H12" si="0">AVERAGE(D3:G3)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0.44</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.7</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0.7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>0.45</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.45</v>
+      <c r="H13" s="9">
+        <f>AVERAGE(H2:H12)</f>
+        <v>0.59090909090909094</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
